--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-01.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-01.xlsx
@@ -2340,19 +2340,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Strange. Devils, the “inferior race of the banished.” You mercenaries cannot accept this definition, nor will you take pride in it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Duh. But your people started calling us “devils,” not as a hate thing, or because it was catchy or whatever.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Devil is a “fear” thing. You people called us that because we scare you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  So us mercs like being called “devils,” because we know exactly what it really means.
+    <t xml:space="preserve">[name="Talulah"]  Strange. Devils, the 'inferior race of the banished.' You mercenaries cannot accept this definition, nor will you take pride in it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Duh. But your people started calling us 'devils,' not as a hate thing, or because it was catchy or whatever.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Devil is a 'fear' thing. You people called us that because we scare you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  So us mercs like being called 'devils,' because we know exactly what it really means.
 </t>
   </si>
   <si>
@@ -2372,7 +2372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  “Inflict terror upon your enemies, and provide warmth for your friends.”
+    <t xml:space="preserve">[name="Talulah"]  'Inflict terror upon your enemies, and provide warmth for your friends.'
 </t>
   </si>
   <si>
@@ -2692,7 +2692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Hey, this “little trick” took me hours to put together. Show some respect, huh?
+    <t xml:space="preserve">[name="W"]  Hey, this 'little trick' took me hours to put together. Show some respect, huh?
 </t>
   </si>
   <si>
@@ -2848,7 +2848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Trying to talk me into giving you information was another cover. A mercenary leader who cares nothing for the direction of Reunion would not ask me, the “Leader of Reunion,” about my plans.
+    <t xml:space="preserve">[name="Talulah"]  Trying to talk me into giving you information was another cover. A mercenary leader who cares nothing for the direction of Reunion would not ask me, the 'Leader of Reunion,' about my plans.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-01.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-01.xlsx
@@ -2280,11 +2280,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">An old monster once told me... What doesn’t kill you only makes you stronger.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I always thought it was stupid. But the guy’s a monster, so maybe I do have to give this some thought.
+    <t xml:space="preserve">An old monster once told me... What doesn't kill you only makes you stronger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I always thought it was stupid. But the guy's a monster, so maybe I do have to give this some thought.
 </t>
   </si>
   <si>
@@ -2292,7 +2292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No. Let’s not talk about how dumb and weak a bug is. You know, no matter how strong a bug gets, in the end, it’s still just a bug.
+    <t xml:space="preserve">No. Let's not talk about how dumb and weak a bug is. You know, no matter how strong a bug gets, in the end, it's still just a bug.
 </t>
   </si>
   <si>
@@ -2300,11 +2300,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But what if I was to leap into the flames? Besides proving that I’m crazy, what else would that prove? I’d come out a bit charred, but how would that make me any stronger?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But we’re talking about death here. And what does an undying monster know about death?
+    <t xml:space="preserve">But what if I was to leap into the flames? Besides proving that I'm crazy, what else would that prove? I'd come out a bit charred, but how would that make me any stronger?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But we're talking about death here. And what does an undying monster know about death?
 </t>
   </si>
   <si>
@@ -2312,7 +2312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’ll still talk to me? That’s a surprise.
+    <t xml:space="preserve">[name="W"]  You'll still talk to me? That's a surprise.
 </t>
   </si>
   <si>
@@ -2320,19 +2320,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  W. You haven’t given anyone notice of your visit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Hah. Oops, my bad. I’ve been a mercenary for too long, forgot all about that reporting-every-detail-of-my-life-to-the-boss thing. Sorry, Leader.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But you know I can’t go all the way up to the top of the command tower, so I have to ask you to stoop to my level.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Your sarcasm isn’t doing us any good, W. Reunion needs the might of the Sarkaz, and we should strive not to add any more personal conflicts between us.
+    <t xml:space="preserve">[name="Talulah"]  W. You haven't given anyone notice of your visit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Hah. Oops, my bad. I've been a mercenary for too long, forgot all about that reporting-every-detail-of-my-life-to-the-boss thing. Sorry, Leader.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But you know I can't go all the way up to the top of the command tower, so I have to ask you to stoop to my level.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Your sarcasm isn't doing us any good, W. Reunion needs the might of the Sarkaz, and we should strive not to add any more personal conflicts between us.
 </t>
   </si>
   <si>
@@ -2360,11 +2360,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Oh, sorry— Me yapping on about this is like trying to show off in front of an expert, isn’t it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  We’re a no-name merc squad famous for brutality. But compared to you? Why, that’s like a worm trying to go up against a crab.
+    <t xml:space="preserve">[name="W"]  Oh, sorry— Me yapping on about this is like trying to show off in front of an expert, isn't it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  We're a no-name merc squad famous for brutality. But compared to you? Why, that's like a worm trying to go up against a crab.
 </t>
   </si>
   <si>
@@ -2380,7 +2380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  So, driving Ursus’s core city into Lungmen is also in line with a certain comrade’s ardent wish?
+    <t xml:space="preserve">[name="W"]  So, driving Ursus's core city into Lungmen is also in line with a certain comrade's ardent wish?
 </t>
   </si>
   <si>
@@ -2392,7 +2392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Everyone’s wishes find harmony here, and the responsibility to see those wishes come to fruition belongs to us, Reunion.
+    <t xml:space="preserve">[name="Talulah"]  Everyone's wishes find harmony here, and the responsibility to see those wishes come to fruition belongs to us, Reunion.
 </t>
   </si>
   <si>
@@ -2412,7 +2412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Ooh, sounds like a good deal. Just going off the profits, I’m totally on board.
+    <t xml:space="preserve">[name="W"]  Ooh, sounds like a good deal. Just going off the profits, I'm totally on board.
 </t>
   </si>
   <si>
@@ -2420,7 +2420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  None. You’ve made a great case. Want a standing ovation?
+    <t xml:space="preserve">[name="W"]  None. You've made a great case. Want a standing ovation?
 </t>
   </si>
   <si>
@@ -2428,7 +2428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Then let’s talk about my mission. Bad news is I failed. I didn’t manage to bring back my target, and she wouldn’t give me the thing.
+    <t xml:space="preserve">[name="W"]  Then let's talk about my mission. Bad news is I failed. I didn't manage to bring back my target, and she wouldn't give me the thing.
 </t>
   </si>
   <si>
@@ -2436,11 +2436,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Why’d you send me to grab that scientist’s daughter then?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  It seems like you didn’t even need her or her secrets for your big plan. Between the attack on Lungmen and firing up the core city, what was the point of her anyway?
+    <t xml:space="preserve">[name="W"]  Why'd you send me to grab that scientist's daughter then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  It seems like you didn't even need her or her secrets for your big plan. Between the attack on Lungmen and firing up the core city, what was the point of her anyway?
 </t>
   </si>
   <si>
@@ -2448,7 +2448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I can personally verify that we’ve activated the core city, but Reunion still needs full control over the way it stops. That’s where this key comes in.
+    <t xml:space="preserve">[name="Talulah"]  I can personally verify that we've activated the core city, but Reunion still needs full control over the way it stops. That's where this key comes in.
 </t>
   </si>
   <si>
@@ -2464,11 +2464,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re not interested in hearing my justifications, but you also don’t plan on offering yours either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I have my own channels, and might be a little more frank than I used to be. Oh, but I guess I could’ve mixed up my sources? Something like that.
+    <t xml:space="preserve">[name="Talulah"]  You're not interested in hearing my justifications, but you also don't plan on offering yours either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I have my own channels, and might be a little more frank than I used to be. Oh, but I guess I could've mixed up my sources? Something like that.
 </t>
   </si>
   <si>
@@ -2476,7 +2476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Skullshatterer and your first operation tested the L.G.D.’s response speed. It allowed us to adjust our strategy and improve upon our plans to take down Lungmen.
+    <t xml:space="preserve">[name="Talulah"]  Skullshatterer and your first operation tested the L.G.D.'s response speed. It allowed us to adjust our strategy and improve upon our plans to take down Lungmen.
 </t>
   </si>
   <si>
@@ -2484,15 +2484,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  The Key did truly exist, but was lost upon Misha’s death. The Key that Patriot sought was only a backup plan to deal with this situation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I won’t force you to tell me where your information came from, but my explanation should convince you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  All right, all right. But, Leader, I want to know how many Keys there are. Won’t ask any more questions after that, yeah?
+    <t xml:space="preserve">[name="Talulah"]  The Key did truly exist, but was lost upon Misha's death. The Key that Patriot sought was only a backup plan to deal with this situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I won't force you to tell me where your information came from, but my explanation should convince you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  All right, all right. But, Leader, I want to know how many Keys there are. Won't ask any more questions after that, yeah?
 </t>
   </si>
   <si>
@@ -2516,15 +2516,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’re really good at explaining things, Leader. I’m all out of questions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Hey, I’m not asking too many, am I? Sorry to make you waste so much time explaining it all to me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  W, if openness can resolve the misunderstanding between us, I won’t be stingy with my time.
+    <t xml:space="preserve">[name="W"]  You're really good at explaining things, Leader. I'm all out of questions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Hey, I'm not asking too many, am I? Sorry to make you waste so much time explaining it all to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  W, if openness can resolve the misunderstanding between us, I won't be stingy with my time.
 </t>
   </si>
   <si>
@@ -2536,7 +2536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Really? I’m touched.
+    <t xml:space="preserve">[name="W"]  Really? I'm touched.
 </t>
   </si>
   <si>
@@ -2552,7 +2552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Oh, not to say there’s anything wrong with lying.
+    <t xml:space="preserve">Oh, not to say there's anything wrong with lying.
 </t>
   </si>
   <si>
@@ -2560,11 +2560,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But when I lie, I know I’m lying. I chew up my thoughts up and spit them into ears. This she-dragon, though, she lies so natural it’s like the words come out of someone else’s mouth.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doesn’t matter who she’s talking to. It’s not just tweaking a couple points to cover up her plans.
+    <t xml:space="preserve">But when I lie, I know I'm lying. I chew up my thoughts up and spit them into ears. This she-dragon, though, she lies so natural it's like the words come out of someone else's mouth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn't matter who she's talking to. It's not just tweaking a couple points to cover up her plans.
 </t>
   </si>
   <si>
@@ -2572,11 +2572,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reunion’s most beloved figure is, of course, the Leader, Talulah. Standing here with me, she’s a businesswoman, a trader. With Patriot she turns right into a warrior woman.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She’ll show her true face one day, but not everyone will live long enough to see it.
+    <t xml:space="preserve">Reunion's most beloved figure is, of course, the Leader, Talulah. Standing here with me, she's a businesswoman, a trader. With Patriot she turns right into a warrior woman.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She'll show her true face one day, but not everyone will live long enough to see it.
 </t>
   </si>
   <si>
@@ -2584,7 +2584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Is she an onion? You keep peeling off layer after layer until you realize there’s nothing inside?
+    <t xml:space="preserve">Is she an onion? You keep peeling off layer after layer until you realize there's nothing inside?
 </t>
   </si>
   <si>
@@ -2600,15 +2600,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Right now she’s like a cunning Savra after a lifetime of raiding and killing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Something pulls away the air in front of me, and in a split second it’ll melt away my whole body.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Don’t tell me you’re ready to kill me after a little bit of teasing.
+    <t xml:space="preserve">Right now she's like a cunning Savra after a lifetime of raiding and killing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something pulls away the air in front of me, and in a split second it'll melt away my whole body.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Don't tell me you're ready to kill me after a little bit of teasing.
 </t>
   </si>
   <si>
@@ -2620,7 +2620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s just like a fire without light.
+    <t xml:space="preserve">It's just like a fire without light.
 </t>
   </si>
   <si>
@@ -2632,11 +2632,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Kinda obvious, dragon lady. The old Talulah wouldn’t have showed her cards this early.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waiting to die, or plopping down some long-winded monologue before the end, just isn’t my style.
+    <t xml:space="preserve">[name="W"]  Kinda obvious, dragon lady. The old Talulah wouldn't have showed her cards this early.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting to die, or plopping down some long-winded monologue before the end, just isn't my style.
 </t>
   </si>
   <si>
@@ -2648,15 +2648,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A wave of heat rushes towards me. Luckily, the comforting warmth isn’t hers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’m no Arts expert, in my experience, ninety-nine percent of Arts are no match for this pure burst of energy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosions. Heat, shrapnel, shockwaves. It’s an equalizing force that tears apart any enemy, or me.
+    <t xml:space="preserve">A wave of heat rushes towards me. Luckily, the comforting warmth isn't hers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm no Arts expert, in my experience, ninety-nine percent of Arts are no match for this pure burst of energy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosions. Heat, shrapnel, shockwaves. It's an equalizing force that tears apart any enemy, or me.
 </t>
   </si>
   <si>
@@ -2664,27 +2664,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’re such a hard worker, Talulah. You even went through all that trouble to play out a sitcom with me. I knew it, you really would make a great actor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This dragon lady... I don’t really hate her that much, do I?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Those who don’t know how to deceive cannot tell lies, and thus are not liars. And she... is a monster soaked in lies.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She doesn’t need to lie.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No wonder I get kinda... Okay, I admit it, kinda scared when I see her. I don’t hate her, but I might really be afraid of her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And fear breeds caution. If you’ve got your guard up, you’re prepared. 
+    <t xml:space="preserve">[name="W"]  You're such a hard worker, Talulah. You even went through all that trouble to play out a sitcom with me. I knew it, you really would make a great actor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dragon lady... I don't really hate her that much, do I?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those who don't know how to deceive cannot tell lies, and thus are not liars. And she... is a monster soaked in lies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She doesn't need to lie.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No wonder I get kinda... Okay, I admit it, kinda scared when I see her. I don't hate her, but I might really be afraid of her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And fear breeds caution. If you've got your guard up, you're prepared. 
 </t>
   </si>
   <si>
@@ -2704,15 +2704,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You made the first move, dragon lady. Are you trying to torch me because I’m a pain, or do you wanna shut me up because I’ve seen through you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To punctuate my sentence, a wave of heat surges from her fingertips and leaps towards me. Man, this dragon bitch just won’t let me have any fun.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I bend my waist and drop into an exaggerated roll, making it look like I’m tying my shoes.
+    <t xml:space="preserve">[name="W"]  You made the first move, dragon lady. Are you trying to torch me because I'm a pain, or do you wanna shut me up because I've seen through you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To punctuate my sentence, a wave of heat surges from her fingertips and leaps towards me. Man, this dragon bitch just won't let me have any fun.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I bend my waist and drop into an exaggerated roll, making it look like I'm tying my shoes.
 </t>
   </si>
   <si>
@@ -2732,7 +2732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Why? Why do you think this was my idea? I sure as hell didn’t want us clawing at each other’s faces this soon.
+    <t xml:space="preserve">[name="W"]  Why? Why do you think this was my idea? I sure as hell didn't want us clawing at each other's faces this soon.
 </t>
   </si>
   <si>
@@ -2748,11 +2748,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Lying to me is no big deal. I don’t really care who you lie to, how many people you kill, or how many people you lie to...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But, dragon lady, you’ll regret lifting a finger against me.
+    <t xml:space="preserve">[name="W"]  Lying to me is no big deal. I don't really care who you lie to, how many people you kill, or how many people you lie to...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But, dragon lady, you'll regret lifting a finger against me.
 </t>
   </si>
   <si>
@@ -2760,7 +2760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Maybe I really am losing it. Can’t even call this insanity at this point. Seems more sentimental than anything else.
+    <t xml:space="preserve">Maybe I really am losing it. Can't even call this insanity at this point. Seems more sentimental than anything else.
 </t>
   </si>
   <si>
@@ -2780,7 +2780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Not as lovely as you, of course. But, you’ll be even cuter once I rip your tongue out. Can’t have it lolling around.
+    <t xml:space="preserve">[name="W"]  Not as lovely as you, of course. But, you'll be even cuter once I rip your tongue out. Can't have it lolling around.
 </t>
   </si>
   <si>
@@ -2812,7 +2812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Woah... Creepy. What’s the matter with you? Who are you talking to with that tone of voice?
+    <t xml:space="preserve">[name="W"]  Woah... Creepy. What's the matter with you? Who are you talking to with that tone of voice?
 </t>
   </si>
   <si>
@@ -2832,7 +2832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  What do you know about me? You’ve got like eighty different plots within plots going on in that noggin and you’re gonna guess what’s in mine?
+    <t xml:space="preserve">[name="W"]  What do you know about me? You've got like eighty different plots within plots going on in that noggin and you're gonna guess what's in mine?
 </t>
   </si>
   <si>
@@ -2852,11 +2852,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You know, I won’t kill you— as long as you put aside your interest in this war. Do that, and I’ll spare your life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m fond of you, W. You’re good comic relief. And I have no desire to execute a harmless harlequin.
+    <t xml:space="preserve">[name="Talulah"]  You know, I won't kill you— as long as you put aside your interest in this war. Do that, and I'll spare your life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I'm fond of you, W. You're good comic relief. And I have no desire to execute a harmless harlequin.
 </t>
   </si>
   <si>
@@ -2880,15 +2880,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  W, W... You’re all too easy to read. I didn’t even need to make any plans to investigate you. You came here wearing your heart on your sleeves.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  That’s a load of bullshit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I’ll turn you into a puddle of gore and have someone dump you down the waste chute, assuming there’s anything left.
+    <t xml:space="preserve">[name="Talulah"]  W, W... You're all too easy to read. I didn't even need to make any plans to investigate you. You came here wearing your heart on your sleeves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  That's a load of bullshit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I'll turn you into a puddle of gore and have someone dump you down the waste chute, assuming there's anything left.
 </t>
   </si>
   <si>
@@ -2904,7 +2904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Wait, wait... Didn’t I have a detonator mechanism for the explosives?
+    <t xml:space="preserve">Wait, wait... Didn't I have a detonator mechanism for the explosives?
 </t>
   </si>
   <si>
@@ -2940,15 +2940,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The place where I planted the Originium is deformed, melted, and warped. Drips of iron and the burned oil paint covering it gives off nasty smell. But that’s it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My shrapnel. My blast waves. My light show. It’s not going to happen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cataclysm that I pictured in my mind a million times over... isn’t going to happen.
+    <t xml:space="preserve">The place where I planted the Originium is deformed, melted, and warped. Drips of iron and the burned oil paint covering it gives off nasty smell. But that's it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My shrapnel. My blast waves. My light show. It's not going to happen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cataclysm that I pictured in my mind a million times over... isn't going to happen.
 </t>
   </si>
   <si>
@@ -2960,7 +2960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">You figured it out. You’re so smart, W.
+    <t xml:space="preserve">You figured it out. You're so smart, W.
 </t>
   </si>
   <si>
@@ -2968,7 +2968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">All right, I’ve been thoroughly played.
+    <t xml:space="preserve">All right, I've been thoroughly played.
 </t>
   </si>
   <si>
@@ -2976,7 +2976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Dragon lady, you’re... not half bad...
+    <t xml:space="preserve">[name="W"]  Dragon lady, you're... not half bad...
 </t>
   </si>
   <si>
@@ -2984,19 +2984,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Let me guess, your backup plan is, you’ll show me an improvised suicide bombing spectacle, isn’t that right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Let’s not waste each others’ time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Don’t get too cocky... *cough*, *cough*... little girl. Say, are you... even the same person? Right now, even I... don’t really wanna know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I don’t need you to define me.
+    <t xml:space="preserve">[name="Talulah"]  Let me guess, your backup plan is, you'll show me an improvised suicide bombing spectacle, isn't that right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Let's not waste each others' time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Don't get too cocky... *cough*, *cough*... little girl. Say, are you... even the same person? Right now, even I... don't really wanna know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I don't need you to define me.
 </t>
   </si>
   <si>
@@ -3024,15 +3024,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Unfortunately, you’ll have to accept second.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Now... If we’re talking people I’ve blown up... You, well...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  ...wouldn’t even have a number.
+    <t xml:space="preserve">[name="Talulah"]  Unfortunately, you'll have to accept second.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Now... If we're talking people I've blown up... You, well...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  ...wouldn't even have a number.
 </t>
   </si>
   <si>
@@ -3040,19 +3040,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But what’s so bad about death? There are many things worse than dying.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So, when you feel like you’re done for...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As long as you’ve prepared for the stuff worse than death, you’ll even manage to surprise yourself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now... I think, it’s about time I also blow this joint.
+    <t xml:space="preserve">But what's so bad about death? There are many things worse than dying.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, when you feel like you're done for...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As long as you've prepared for the stuff worse than death, you'll even manage to surprise yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now... I think, it's about time I also blow this joint.
 </t>
   </si>
   <si>
@@ -3060,11 +3060,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You blew yourself apart right in my hands...? I thought you’d be more afraid to die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Though your defection didn’t surprise me, you, yourself, did... surprise me a little.
+    <t xml:space="preserve">[name="Talulah"]  You blew yourself apart right in my hands...? I thought you'd be more afraid to die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Though your defection didn't surprise me, you, yourself, did... surprise me a little.
 </t>
   </si>
   <si>
@@ -3076,7 +3076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">After the battle, 31 hours until impact, 6:30 PM
+    <t xml:space="preserve">After the battle, 31 hours until impact, 6:30 P.M.
 </t>
   </si>
   <si>
@@ -3096,15 +3096,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  It was between me and W, who tried to assassinate me. Don’t worry, I’m fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  From the reports I’ve received, she was already showing signs of rebellion when she occupied Chernobog.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  She made her own decision to let the enemy escape, instigated the Sarkaz mercenaries’ rebellion, and murdered her superior.
+    <t xml:space="preserve">[name="Talulah"]  It was between me and W, who tried to assassinate me. Don't worry, I'm fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  From the reports I've received, she was already showing signs of rebellion when she occupied Chernobog.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  She made her own decision to let the enemy escape, instigated the Sarkaz mercenaries' rebellion, and murdered her superior.
 </t>
   </si>
   <si>
@@ -3136,7 +3136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I will deal with it. Now that the core city is steadily moving on track, I’ll need to stabilize the situation immediately.
+    <t xml:space="preserve">[name="Talulah"]  I will deal with it. Now that the core city is steadily moving on track, I'll need to stabilize the situation immediately.
 </t>
   </si>
   <si>
@@ -3148,7 +3148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  We’re out of options. Ursus may attack Chernobog at any time and slaughter our compatriots. For their sake, we must first take down Lungmen.
+    <t xml:space="preserve">[name="Talulah"]  We're out of options. Ursus may attack Chernobog at any time and slaughter our compatriots. For their sake, we must first take down Lungmen.
 </t>
   </si>
   <si>
@@ -3168,11 +3168,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  What you say may be correct. I’m sorry, Sir. I should have given it more thought.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  But... What’s done, is done.
+    <t xml:space="preserve">[name="Talulah"]  What you say may be correct. I'm sorry, Sir. I should have given it more thought.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  But... What's done, is done.
 </t>
   </si>
   <si>
@@ -3192,7 +3192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  So, I’m entrusting this key to you. You’ll decide when we stop.
+    <t xml:space="preserve">[name="Talulah"]  So, I'm entrusting this key to you. You'll decide when we stop.
 </t>
   </si>
   <si>
@@ -3232,7 +3232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  What’s the matter, my champion?
+    <t xml:space="preserve">[name="Talulah"]  What's the matter, my champion?
 </t>
   </si>
   <si>
@@ -3260,7 +3260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Chilling Voice"]  What’s this?
+    <t xml:space="preserve">[name="Chilling Voice"]  What's this?
 </t>
   </si>
   <si>
@@ -3272,7 +3272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Chilling Voice"]  What are these for? It’s a bit heavy.
+    <t xml:space="preserve">[name="Chilling Voice"]  What are these for? It's a bit heavy.
 </t>
   </si>
   <si>
@@ -3280,7 +3280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Chilling Voice"]  You still believe in those weird Sarkaz things? ...What’s the point of this?
+    <t xml:space="preserve">[name="Chilling Voice"]  You still believe in those weird Sarkaz things? ...What's the point of this?
 </t>
   </si>
   <si>
@@ -3316,11 +3316,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Chilling Voice"]  ...Why aren’t you saying anything?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Chilling Voice"]  Uh... Fine, I’ll hang onto it.
+    <t xml:space="preserve">[name="Chilling Voice"]  ...Why aren't you saying anything?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Chilling Voice"]  Uh... Fine, I'll hang onto it.
 </t>
   </si>
   <si>
@@ -3328,7 +3328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Chilling Voice"]  I’m obviously going to outlive you, so you just do your own thing.
+    <t xml:space="preserve">[name="Chilling Voice"]  I'm obviously going to outlive you, so you just do your own thing.
 </t>
   </si>
   <si>
